--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.15/avg_0.002_scores.xlsx
@@ -49,24 +49,21 @@
     <t>useless</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>stopped</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>however</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -79,334 +76,340 @@
     <t>loves</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>excellent</t>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>fantastic</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>fantastic</t>
+    <t>beautiful</t>
   </si>
   <si>
     <t>favorite</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>husband</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>apples</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>apples</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>loved</t>
+    <t>rice</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>son</t>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
+    <t>bread</t>
   </si>
   <si>
     <t>friends</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>pie</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>cheese</t>
+    <t>popcorn</t>
   </si>
   <si>
     <t>handy</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>gift</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>baking</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
+    <t>easy</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>tea</t>
   </si>
   <si>
     <t>home</t>
   </si>
   <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>always</t>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>keeps</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>cook</t>
+    <t>kitchen</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>kitchen</t>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>fan</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>book</t>
-  </si>
-  <si>
-    <t>fan</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>liked</t>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>amazon</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>maker</t>
   </si>
   <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>brand</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>dish</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>worth</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>far</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>last</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>clean</t>
   </si>
   <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>cup</t>
+    <t>make</t>
+  </si>
+  <si>
+    <t>hot</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>long</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>really</t>
+    <t>much</t>
   </si>
   <si>
     <t>buy</t>
@@ -415,13 +418,10 @@
     <t>time</t>
   </si>
   <si>
-    <t>much</t>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
-  </si>
-  <si>
-    <t>used</t>
   </si>
   <si>
     <t>made</t>
@@ -788,7 +788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q121"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -796,7 +796,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
         <v>138</v>
@@ -857,13 +857,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -875,19 +875,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9655172413793104</v>
       </c>
       <c r="L3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -907,13 +907,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6666666666666666</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -925,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K4">
-        <v>0.956989247311828</v>
+        <v>0.9354838709677419</v>
       </c>
       <c r="L4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M4">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -949,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -957,13 +957,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.625</v>
+        <v>0.55</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D5">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -975,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5">
-        <v>0.9473684210526315</v>
+        <v>0.8984375</v>
       </c>
       <c r="L5">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="M5">
-        <v>18</v>
+        <v>115</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -999,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1007,13 +1007,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.36</v>
+        <v>0.4339622641509434</v>
       </c>
       <c r="C6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D6">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6">
-        <v>0.921875</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1057,13 +1057,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3565891472868217</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1075,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K7">
-        <v>0.8840579710144928</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L7">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="M7">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1107,13 +1107,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3207547169811321</v>
+        <v>0.303030303030303</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1125,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K8">
-        <v>0.8560371517027864</v>
+        <v>0.868421052631579</v>
       </c>
       <c r="L8">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="M8">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1149,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1157,13 +1157,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3131313131313131</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9">
-        <v>0.8478260869565217</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1228,16 +1228,16 @@
         <v>62</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K10">
-        <v>0.8461538461538461</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1257,13 +1257,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.1355932203389831</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="C11">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1275,69 +1275,45 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>102</v>
+        <v>156</v>
       </c>
       <c r="J11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11">
+        <v>0.7954545454545454</v>
+      </c>
+      <c r="L11">
+        <v>35</v>
+      </c>
+      <c r="M11">
+        <v>35</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="K11">
-        <v>0.8</v>
-      </c>
-      <c r="L11">
-        <v>16</v>
-      </c>
-      <c r="M11">
-        <v>16</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.1297297297297297</v>
-      </c>
-      <c r="C12">
-        <v>24</v>
-      </c>
-      <c r="D12">
-        <v>24</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>161</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="K12">
         <v>0.75</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1349,21 +1325,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13">
-        <v>0.7142857142857143</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M13">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1375,21 +1351,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14">
-        <v>0.688135593220339</v>
+        <v>0.7123287671232876</v>
       </c>
       <c r="L14">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="M14">
-        <v>203</v>
+        <v>52</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1401,21 +1377,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K15">
-        <v>0.6753246753246753</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L15">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1427,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K16">
-        <v>0.6712328767123288</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1453,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17">
-        <v>0.6666666666666666</v>
+        <v>0.6623376623376623</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1479,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K18">
-        <v>0.6420545746388443</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L18">
-        <v>800</v>
+        <v>23</v>
       </c>
       <c r="M18">
-        <v>800</v>
+        <v>23</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1505,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>446</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19">
-        <v>0.6176470588235294</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1531,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K20">
-        <v>0.6153846153846154</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>786</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>786</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1557,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>10</v>
+        <v>460</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K21">
-        <v>0.6122448979591837</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1583,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K22">
-        <v>0.6056338028169014</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L22">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1609,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K23">
-        <v>0.59375</v>
+        <v>0.6122448979591837</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1635,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K24">
-        <v>0.5925925925925926</v>
+        <v>0.6056338028169014</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1661,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K25">
-        <v>0.5897435897435898</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="L25">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1687,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>0.5897435897435898</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L26">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1713,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>0.5857142857142857</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1739,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>0.5769230769230769</v>
+        <v>0.578125</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1765,12 +1741,12 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K29">
         <v>0.5694444444444444</v>
@@ -1796,16 +1772,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K30">
-        <v>0.5657142857142857</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L30">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1817,21 +1793,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>76</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K31">
-        <v>0.5625</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L31">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="M31">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1843,21 +1819,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K32">
-        <v>0.5614035087719298</v>
+        <v>0.5542857142857143</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>97</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1869,21 +1845,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K33">
-        <v>0.5538461538461539</v>
+        <v>0.5421686746987951</v>
       </c>
       <c r="L33">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M33">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1895,21 +1871,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K34">
-        <v>0.5428571428571428</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L34">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M34">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1921,21 +1897,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K35">
-        <v>0.5396825396825397</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="M35">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1947,21 +1923,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>29</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K36">
-        <v>0.5384615384615384</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="L36">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M36">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1973,21 +1949,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>54</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K37">
-        <v>0.5089820359281437</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L37">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1999,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>82</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K38">
-        <v>0.5</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="L38">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M38">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2025,15 +2001,15 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>38</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K39">
-        <v>0.4923076923076923</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="L39">
         <v>32</v>
@@ -2051,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K40">
-        <v>0.4918032786885246</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="M40">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2077,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K41">
-        <v>0.4819277108433735</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L41">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="M41">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2103,21 +2079,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K42">
-        <v>0.475</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L42">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M42">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2129,21 +2105,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K43">
-        <v>0.4705882352941176</v>
+        <v>0.48</v>
       </c>
       <c r="L43">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M43">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2155,21 +2131,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K44">
-        <v>0.4691358024691358</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L44">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2181,21 +2157,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>43</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K45">
-        <v>0.46</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="L45">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M45">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2207,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K46">
-        <v>0.4285714285714285</v>
+        <v>0.4567901234567901</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2233,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K47">
-        <v>0.4193548387096774</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="L47">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M47">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2259,21 +2235,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K48">
-        <v>0.4166666666666667</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L48">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="M48">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2285,21 +2261,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>21</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K49">
-        <v>0.4156626506024096</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="L49">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="M49">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2311,12 +2287,12 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K50">
         <v>0.4078947368421053</v>
@@ -2342,16 +2318,16 @@
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K51">
-        <v>0.3947368421052632</v>
+        <v>0.4</v>
       </c>
       <c r="L51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M51">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2363,21 +2339,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K52">
-        <v>0.3902439024390244</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M52">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2389,21 +2365,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K53">
-        <v>0.3809523809523809</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2415,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K54">
-        <v>0.3684210526315789</v>
+        <v>0.3872549019607843</v>
       </c>
       <c r="L54">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="M54">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2441,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>84</v>
+        <v>250</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K55">
-        <v>0.3666666666666666</v>
+        <v>0.3795180722891566</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2467,21 +2443,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>38</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K56">
-        <v>0.3657587548638132</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L56">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2493,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>163</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K57">
-        <v>0.3636363636363636</v>
+        <v>0.3666666666666666</v>
       </c>
       <c r="L57">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2519,21 +2495,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K58">
-        <v>0.3529411764705883</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L58">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="M58">
-        <v>24</v>
+        <v>94</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2545,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>44</v>
+        <v>163</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K59">
-        <v>0.3513513513513514</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L59">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="M59">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2571,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K60">
-        <v>0.3455882352941176</v>
+        <v>0.3260869565217391</v>
       </c>
       <c r="L60">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="M60">
-        <v>141</v>
+        <v>15</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2597,21 +2573,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>267</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K61">
-        <v>0.3392857142857143</v>
+        <v>0.3214285714285715</v>
       </c>
       <c r="L61">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M61">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2623,15 +2599,15 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>37</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K62">
-        <v>0.3260869565217391</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L62">
         <v>15</v>
@@ -2649,21 +2625,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K63">
-        <v>0.3260869565217391</v>
+        <v>0.3153153153153153</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2675,21 +2651,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>31</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K64">
-        <v>0.326027397260274</v>
+        <v>0.3123287671232877</v>
       </c>
       <c r="L64">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="M64">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2701,47 +2677,47 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>492</v>
+        <v>502</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K65">
-        <v>0.316546762589928</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L65">
+        <v>19</v>
+      </c>
+      <c r="M65">
+        <v>19</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q65">
         <v>44</v>
-      </c>
-      <c r="M65">
-        <v>44</v>
-      </c>
-      <c r="N65">
-        <v>1</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>95</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K66">
-        <v>0.2976190476190476</v>
+        <v>0.2949640287769784</v>
       </c>
       <c r="L66">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="M66">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2753,21 +2729,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K67">
-        <v>0.2772277227722773</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="L67">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="M67">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2779,21 +2755,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>73</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K68">
-        <v>0.271523178807947</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L68">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M68">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2805,21 +2781,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>110</v>
+        <v>77</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K69">
-        <v>0.2706766917293233</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L69">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M69">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2831,21 +2807,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K70">
-        <v>0.2685185185185185</v>
+        <v>0.2781456953642384</v>
       </c>
       <c r="L70">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="M70">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2857,21 +2833,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>79</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K71">
-        <v>0.2612612612612613</v>
+        <v>0.2772277227722773</v>
       </c>
       <c r="L71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M71">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2883,21 +2859,21 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K72">
-        <v>0.2535885167464115</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="L72">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M72">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2909,21 +2885,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K73">
-        <v>0.25</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L73">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="M73">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2935,21 +2911,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K74">
-        <v>0.2461538461538462</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="L74">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M74">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2961,12 +2937,12 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>49</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K75">
         <v>0.2361111111111111</v>
@@ -2992,7 +2968,7 @@
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K76">
         <v>0.234375</v>
@@ -3018,16 +2994,16 @@
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K77">
-        <v>0.2285714285714286</v>
+        <v>0.2241379310344828</v>
       </c>
       <c r="L77">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="M77">
-        <v>24</v>
+        <v>209</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -3036,24 +3012,24 @@
         <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>81</v>
+        <v>720</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K78">
-        <v>0.2282023681377826</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L78">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="M78">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -3065,21 +3041,21 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>717</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K79">
-        <v>0.2272727272727273</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="L79">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M79">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3091,38 +3067,38 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K80">
-        <v>0.2142857142857143</v>
+        <v>0.2147651006711409</v>
       </c>
       <c r="L80">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M80">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="N80">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O80">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q80">
-        <v>88</v>
+        <v>117</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K81">
         <v>0.2117647058823529</v>
@@ -3148,16 +3124,16 @@
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K82">
-        <v>0.2100313479623825</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="L82">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="M82">
-        <v>67</v>
+        <v>16</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3169,47 +3145,47 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>252</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K83">
-        <v>0.2065217391304348</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="L83">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M83">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K84">
-        <v>0.2</v>
+        <v>0.2026490066225166</v>
       </c>
       <c r="L84">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M84">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3221,21 +3197,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K85">
         <v>0.2</v>
       </c>
       <c r="L85">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M85">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3247,47 +3223,47 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K86">
-        <v>0.1946308724832215</v>
+        <v>0.1982758620689655</v>
       </c>
       <c r="L86">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M86">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q86">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K87">
-        <v>0.1923076923076923</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L87">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M87">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3299,73 +3275,73 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>105</v>
+        <v>133</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K88">
-        <v>0.1829268292682927</v>
+        <v>0.1843790012804097</v>
       </c>
       <c r="L88">
-        <v>30</v>
+        <v>144</v>
       </c>
       <c r="M88">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>134</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K89">
-        <v>0.1818181818181818</v>
+        <v>0.1810810810810811</v>
       </c>
       <c r="L89">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="N89">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q89">
-        <v>81</v>
+        <v>303</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K90">
-        <v>0.1713554987212276</v>
+        <v>0.18</v>
       </c>
       <c r="L90">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="M90">
-        <v>134</v>
+        <v>18</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3377,21 +3353,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>648</v>
+        <v>82</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K91">
-        <v>0.1709401709401709</v>
+        <v>0.1773399014778325</v>
       </c>
       <c r="L91">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M91">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3403,47 +3379,47 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>97</v>
+        <v>167</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K92">
-        <v>0.1702702702702703</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="L92">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="M92">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="N92">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O92">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P92" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q92">
-        <v>307</v>
+        <v>264</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K93">
-        <v>0.1651376146788991</v>
+        <v>0.1692307692307692</v>
       </c>
       <c r="L93">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3455,21 +3431,21 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K94">
-        <v>0.1512915129151292</v>
+        <v>0.1616161616161616</v>
       </c>
       <c r="L94">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="M94">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3481,21 +3457,21 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>230</v>
+        <v>83</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K95">
-        <v>0.1412429378531073</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L95">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M95">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3507,21 +3483,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>152</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K96">
-        <v>0.139344262295082</v>
+        <v>0.1512915129151292</v>
       </c>
       <c r="L96">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="M96">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3533,21 +3509,21 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>105</v>
+        <v>230</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K97">
-        <v>0.1327433628318584</v>
+        <v>0.1472868217054264</v>
       </c>
       <c r="L97">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M97">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3559,21 +3535,21 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K98">
-        <v>0.1295454545454545</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="L98">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="M98">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3585,21 +3561,21 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>383</v>
+        <v>108</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K99">
-        <v>0.1271929824561404</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="L99">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="M99">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3611,21 +3587,21 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>398</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K100">
-        <v>0.124031007751938</v>
+        <v>0.1340909090909091</v>
       </c>
       <c r="L100">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="M100">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3637,21 +3613,21 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>113</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K101">
-        <v>0.1231527093596059</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L101">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M101">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3663,21 +3639,21 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>178</v>
+        <v>359</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K102">
-        <v>0.1226993865030675</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="L102">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M102">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3689,73 +3665,73 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K103">
-        <v>0.1196172248803828</v>
+        <v>0.1226993865030675</v>
       </c>
       <c r="L103">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M103">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N103">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O103">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P103" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q103">
-        <v>368</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K104">
-        <v>0.1151515151515152</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="L104">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M104">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N104">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O104">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q104">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K105">
-        <v>0.1143552311435523</v>
+        <v>0.1217948717948718</v>
       </c>
       <c r="L105">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="M105">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3767,21 +3743,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>364</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K106">
-        <v>0.108974358974359</v>
+        <v>0.1217183770883055</v>
       </c>
       <c r="L106">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M106">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3793,21 +3769,21 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>139</v>
+        <v>368</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K107">
-        <v>0.1065292096219931</v>
+        <v>0.1184210526315789</v>
       </c>
       <c r="L107">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M107">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3819,21 +3795,21 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>260</v>
+        <v>402</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K108">
-        <v>0.1050420168067227</v>
+        <v>0.1148148148148148</v>
       </c>
       <c r="L108">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M108">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3845,15 +3821,15 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K109">
-        <v>0.1</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L109">
         <v>27</v>
@@ -3871,21 +3847,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>243</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K110">
-        <v>0.08653846153846154</v>
+        <v>0.1065292096219931</v>
       </c>
       <c r="L110">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="M110">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3897,47 +3873,47 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>190</v>
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K111">
-        <v>0.08464849354375897</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L111">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="M111">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="N111">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>638</v>
+        <v>188</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K112">
-        <v>0.08064516129032258</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="L112">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="M112">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -3949,73 +3925,73 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>228</v>
+        <v>340</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K113">
-        <v>0.07835820895522388</v>
+        <v>0.07102803738317758</v>
       </c>
       <c r="L113">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="M113">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="N113">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O113">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113">
-        <v>988</v>
+        <v>994</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K114">
-        <v>0.06830601092896176</v>
+        <v>0.07040229885057471</v>
       </c>
       <c r="L114">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M114">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N114">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O114">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q114">
-        <v>341</v>
+        <v>647</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K115">
-        <v>0.06598984771573604</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="L115">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M115">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4027,162 +4003,188 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>368</v>
+        <v>232</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K116">
-        <v>0.05350553505535055</v>
+        <v>0.06043956043956044</v>
       </c>
       <c r="L116">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="M116">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N116">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O116">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q116">
-        <v>513</v>
+        <v>342</v>
       </c>
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K117">
-        <v>0.05234159779614325</v>
+        <v>0.0583756345177665</v>
       </c>
       <c r="L117">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M117">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N117">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O117">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q117">
-        <v>344</v>
+        <v>371</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K118">
-        <v>0.05194805194805195</v>
+        <v>0.05535055350553506</v>
       </c>
       <c r="L118">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="M118">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="N118">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>1095</v>
+        <v>512</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K119">
-        <v>0.04414587332053743</v>
+        <v>0.05394990366088632</v>
       </c>
       <c r="L119">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="M119">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N119">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="O119">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P119" t="b">
         <v>1</v>
       </c>
       <c r="Q119">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K120">
-        <v>0.04116222760290557</v>
+        <v>0.04423243712055507</v>
       </c>
       <c r="L120">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="M120">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="N120">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O120">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>396</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K121">
-        <v>0.0235910878112713</v>
+        <v>0.04358353510895883</v>
       </c>
       <c r="L121">
         <v>18</v>
       </c>
       <c r="M121">
+        <v>19</v>
+      </c>
+      <c r="N121">
+        <v>0.95</v>
+      </c>
+      <c r="O121">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P121" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q121">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="122" spans="10:17">
+      <c r="J122" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="K122">
+        <v>0.0235910878112713</v>
+      </c>
+      <c r="L122">
+        <v>18</v>
+      </c>
+      <c r="M122">
         <v>22</v>
       </c>
-      <c r="N121">
+      <c r="N122">
         <v>0.82</v>
       </c>
-      <c r="O121">
+      <c r="O122">
         <v>0.18</v>
       </c>
-      <c r="P121" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q121">
+      <c r="P122" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q122">
         <v>745</v>
       </c>
     </row>
